--- a/Documentation/bom/MS20-VCF-bom.xlsx
+++ b/Documentation/bom/MS20-VCF-bom.xlsx
@@ -347,7 +347,7 @@
     <t>Date:</t>
   </si>
   <si>
-    <t>2023-01-12_21-09-17</t>
+    <t>2023-01-12_21-17-01</t>
   </si>
   <si>
     <t>KiCad Version:</t>
